--- a/tables/irr.xlsx
+++ b/tables/irr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">all_info_expected</t>
   </si>
@@ -20,6 +20,12 @@
     <t xml:space="preserve">study_id</t>
   </si>
   <si>
+    <t xml:space="preserve">natural_es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">converted_es</t>
+  </si>
+  <si>
     <t xml:space="preserve">n_cases_exp</t>
   </si>
   <si>
@@ -33,6 +39,12 @@
   </si>
   <si>
     <t xml:space="preserve">cases_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R+Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D+G+OR</t>
   </si>
 </sst>
 </file>
@@ -383,24 +395,36 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
         <v>121</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>312</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>4.31</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>4.56</v>
       </c>
     </row>

--- a/tables/irr.xlsx
+++ b/tables/irr.xlsx
@@ -41,10 +41,10 @@
     <t xml:space="preserve">cases_time</t>
   </si>
   <si>
-    <t xml:space="preserve">R+Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D+G+OR</t>
+    <t xml:space="preserve">IRR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
   </si>
 </sst>
 </file>
